--- a/Figure1/Figure1A/correlation_multipletimepoints_green_newversion.xlsx
+++ b/Figure1/Figure1A/correlation_multipletimepoints_green_newversion.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -158,12 +158,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,7 +188,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -192,12 +196,118 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -208,1740 +318,1740 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0.18</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>0.32</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.19</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="0" t="n">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="n">
         <v>0.73</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="0" t="n">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="0" t="n">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="3" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="0" t="n">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="0" t="n">
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="n">
         <v>0.73</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="0" t="n">
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="0" t="n">
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="0" t="n">
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="0" t="n">
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="0" t="n">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="n">
         <v>0.48</v>
       </c>
-      <c r="E57" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H57" s="2"/>
+      <c r="E57" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="0" t="n">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <v>0.47</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="0" t="n">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="n">
         <v>0.26</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="0" t="n">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="E63" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H63" s="2"/>
+      <c r="E63" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="n">
         <v>0.28</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>0.31</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>0.19</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="0" t="n">
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="n">
         <v>0.37</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="0" t="n">
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="0" t="n">
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="n">
         <v>0.68</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="0" t="n">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H74" s="2"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="0" t="n">
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="0" t="n">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="0" t="s">
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="0" t="n">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="0" t="n">
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="0" t="n">
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="0" t="n">
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="0" t="n">
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="0" t="n">
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="E89" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H89" s="2"/>
+      <c r="E89" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H92" s="2"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="2"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="2"/>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="2"/>
+      <c r="H95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H96" s="2"/>
+      <c r="H96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H97" s="2"/>
+      <c r="H97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H98" s="2"/>
+      <c r="H98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="2"/>
+      <c r="H99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="2"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H101" s="2"/>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="2"/>
+      <c r="H102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="2"/>
+      <c r="H103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="2"/>
+      <c r="H104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H105" s="2"/>
+      <c r="H105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H106" s="2"/>
+      <c r="H106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="2"/>
+      <c r="H107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="2"/>
+      <c r="H108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H109" s="2"/>
+      <c r="H109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H110" s="2"/>
+      <c r="H110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H111" s="2"/>
+      <c r="H111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H112" s="2"/>
+      <c r="H112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="2"/>
+      <c r="H113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H114" s="2"/>
+      <c r="H114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H115" s="2"/>
+      <c r="H115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H116" s="2"/>
+      <c r="H116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H117" s="2"/>
+      <c r="H117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H118" s="2"/>
+      <c r="H118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H119" s="2"/>
+      <c r="H119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H120" s="2"/>
+      <c r="H120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H121" s="2"/>
+      <c r="H121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H122" s="2"/>
+      <c r="H122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H123" s="2"/>
+      <c r="H123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H124" s="2"/>
+      <c r="H124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H125" s="2"/>
+      <c r="H125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H126" s="2"/>
+      <c r="H126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H127" s="2"/>
+      <c r="H127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H128" s="2"/>
+      <c r="H128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="2"/>
+      <c r="H129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="2"/>
+      <c r="H130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="2"/>
+      <c r="H131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="2"/>
+      <c r="H132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H133" s="2"/>
+      <c r="H133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H134" s="2"/>
+      <c r="H134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="2"/>
+      <c r="H135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="2"/>
+      <c r="H136" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
